--- a/Dokumentumok/Gantt_projektterv.xlsx
+++ b/Dokumentumok/Gantt_projektterv.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34FAFAD-81FB-4E4F-B34C-A7A8CBA3C1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942E7B47-C7B2-4344-8321-86C0E4346089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="29">
   <si>
     <t>TEVÉKENYSÉG</t>
   </si>
@@ -604,6 +604,18 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -645,18 +657,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1070,7 +1070,7 @@
   <dimension ref="A1:HI30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1086,21 +1086,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:217" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
-      <c r="A1" s="41"/>
-      <c r="B1" s="42" t="s">
+      <c r="A1" s="27"/>
+      <c r="B1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="40"/>
+      <c r="C1" s="26"/>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:217" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
       <c r="G2" s="4" t="s">
@@ -1110,65 +1110,65 @@
         <v>3</v>
       </c>
       <c r="J2" s="13"/>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="35"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="39"/>
       <c r="P2" s="14"/>
-      <c r="Q2" s="33" t="s">
+      <c r="Q2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="35"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="39"/>
       <c r="V2" s="15"/>
-      <c r="W2" s="38" t="s">
+      <c r="W2" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="39"/>
+      <c r="X2" s="43"/>
       <c r="Y2" s="20"/>
       <c r="Z2" s="16"/>
-      <c r="AA2" s="26" t="s">
+      <c r="AA2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="37"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="41"/>
       <c r="AH2" s="17"/>
-      <c r="AI2" s="26" t="s">
+      <c r="AI2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="AJ2" s="27"/>
-      <c r="AK2" s="27"/>
-      <c r="AL2" s="27"/>
-      <c r="AM2" s="27"/>
-      <c r="AN2" s="27"/>
-      <c r="AO2" s="27"/>
-      <c r="AP2" s="27"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
     </row>
     <row r="3" spans="1:217" s="10" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="36" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="18" t="s">
@@ -1195,12 +1195,12 @@
       <c r="AA3" s="9"/>
     </row>
     <row r="4" spans="1:217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="29"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
       <c r="H4" s="2">
         <v>1</v>
       </c>
@@ -1845,11 +1845,9 @@
       <c r="E5" s="5">
         <v>1</v>
       </c>
-      <c r="F5" s="5">
-        <v>28</v>
-      </c>
+      <c r="F5" s="5"/>
       <c r="G5" s="6">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="6" spans="1:217" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1865,9 +1863,7 @@
       <c r="E6" s="5">
         <v>1</v>
       </c>
-      <c r="F6" s="5">
-        <v>28</v>
-      </c>
+      <c r="F6" s="5"/>
       <c r="G6" s="6">
         <v>0.2</v>
       </c>
@@ -1885,9 +1881,7 @@
       <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="F7" s="5"/>
       <c r="G7" s="6">
         <v>0</v>
       </c>
@@ -1905,9 +1899,7 @@
       <c r="E8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="F8" s="5"/>
       <c r="G8" s="6">
         <v>0</v>
       </c>
@@ -1925,9 +1917,7 @@
       <c r="E9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="F9" s="5"/>
       <c r="G9" s="6">
         <v>0</v>
       </c>
@@ -1945,9 +1935,7 @@
       <c r="E10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="F10" s="5"/>
       <c r="G10" s="6">
         <v>0</v>
       </c>
@@ -1965,9 +1953,7 @@
       <c r="E11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="F11" s="5"/>
       <c r="G11" s="6">
         <v>0</v>
       </c>
@@ -1985,9 +1971,7 @@
       <c r="E12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="F12" s="5"/>
       <c r="G12" s="6">
         <v>0</v>
       </c>
@@ -2005,9 +1989,7 @@
       <c r="E13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="F13" s="5"/>
       <c r="G13" s="6">
         <v>0</v>
       </c>
@@ -2025,9 +2007,7 @@
       <c r="E14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="F14" s="5"/>
       <c r="G14" s="6">
         <v>0</v>
       </c>
@@ -2045,9 +2025,7 @@
       <c r="E15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="F15" s="5"/>
       <c r="G15" s="6">
         <v>0</v>
       </c>
@@ -2065,9 +2043,7 @@
       <c r="E16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="F16" s="5"/>
       <c r="G16" s="6">
         <v>0</v>
       </c>
@@ -2085,9 +2061,7 @@
       <c r="E17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="F17" s="5"/>
       <c r="G17" s="6">
         <v>0</v>
       </c>
@@ -2105,9 +2079,7 @@
       <c r="E18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="F18" s="5"/>
       <c r="G18" s="6">
         <v>0</v>
       </c>
@@ -2125,9 +2097,7 @@
       <c r="E19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="F19" s="5"/>
       <c r="G19" s="6">
         <v>0</v>
       </c>
@@ -2145,9 +2115,7 @@
       <c r="E20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="F20" s="5"/>
       <c r="G20" s="6">
         <v>0</v>
       </c>
@@ -2165,9 +2133,7 @@
       <c r="E21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="F21" s="5"/>
       <c r="G21" s="6">
         <v>0</v>
       </c>
@@ -2185,9 +2151,7 @@
       <c r="E22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="F22" s="5"/>
       <c r="G22" s="6">
         <v>0</v>
       </c>
@@ -2205,9 +2169,7 @@
       <c r="E23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="F23" s="5"/>
       <c r="G23" s="6">
         <v>0</v>
       </c>
@@ -2225,9 +2187,7 @@
       <c r="E24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="F24" s="5"/>
       <c r="G24" s="6">
         <v>0</v>
       </c>
@@ -2245,9 +2205,7 @@
       <c r="E25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="F25" s="5"/>
       <c r="G25" s="6">
         <v>0</v>
       </c>
@@ -2265,9 +2223,7 @@
       <c r="E26" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="F26" s="5"/>
       <c r="G26" s="6">
         <v>0</v>
       </c>
@@ -2285,9 +2241,7 @@
       <c r="E27" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="F27" s="5"/>
       <c r="G27" s="6">
         <v>0</v>
       </c>
@@ -2305,9 +2259,7 @@
       <c r="E28" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="F28" s="5"/>
       <c r="G28" s="6">
         <v>0</v>
       </c>
@@ -2325,9 +2277,7 @@
       <c r="E29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="F29" s="5"/>
       <c r="G29" s="6">
         <v>0</v>
       </c>
@@ -2345,9 +2295,7 @@
       <c r="E30" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="F30" s="5"/>
       <c r="G30" s="6">
         <v>0</v>
       </c>

--- a/Dokumentumok/Gantt_projektterv.xlsx
+++ b/Dokumentumok/Gantt_projektterv.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942E7B47-C7B2-4344-8321-86C0E4346089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F153E5E8-0E8C-4B8B-A939-D5E9C6F8FD51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1070,7 +1070,7 @@
   <dimension ref="A1:HI30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1845,7 +1845,9 @@
       <c r="E5" s="5">
         <v>1</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="5">
+        <v>7</v>
+      </c>
       <c r="G5" s="6">
         <v>0.9</v>
       </c>

--- a/Dokumentumok/Gantt_projektterv.xlsx
+++ b/Dokumentumok/Gantt_projektterv.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F153E5E8-0E8C-4B8B-A939-D5E9C6F8FD51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0721D3EC-CED8-49EB-A424-08F6443993C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="29">
   <si>
     <t>TEVÉKENYSÉG</t>
   </si>
@@ -1070,7 +1070,7 @@
   <dimension ref="A1:HI30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="AC13" sqref="AC13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1107,7 +1107,7 @@
         <v>5</v>
       </c>
       <c r="H2" s="12">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J2" s="13"/>
       <c r="K2" s="37" t="s">
@@ -1846,7 +1846,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="5">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G5" s="6">
         <v>0.9</v>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="6">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="7" spans="1:217" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1875,17 +1875,17 @@
         <v>16</v>
       </c>
       <c r="C7" s="5">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D7" s="5">
         <v>14</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>13</v>
+      <c r="E7" s="5">
+        <v>8</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="6">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="8" spans="1:217" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1893,17 +1893,17 @@
         <v>17</v>
       </c>
       <c r="C8" s="23">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D8" s="23">
-        <v>21</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="E8" s="5">
+        <v>9</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:217" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1911,17 +1911,17 @@
         <v>24</v>
       </c>
       <c r="C9" s="5">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D9" s="5">
-        <v>12</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="E9" s="5">
+        <v>8</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="6">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="10" spans="1:217" ht="30" customHeight="1" x14ac:dyDescent="0.25">
